--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_488__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_488__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,22 +5987,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>94.70972442626953</c:v>
+                  <c:v>94.70973968505859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.743833541870117</c:v>
+                  <c:v>-1.743827700614929</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.25104522705078</c:v>
+                  <c:v>74.25105285644531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.283538341522217</c:v>
+                  <c:v>-1.283550143241882</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>95.69131469726562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.88845825195312</c:v>
+                  <c:v>93.88845062255859</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>98.70066833496094</c:v>
@@ -6014,103 +6014,103 @@
                   <c:v>52.71519470214844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.56847381591797</c:v>
+                  <c:v>92.56846618652344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90.2413330078125</c:v>
+                  <c:v>90.24134826660156</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>35.00503158569336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91.25121307373047</c:v>
+                  <c:v>91.25120544433594</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.97679901123047</c:v>
+                  <c:v>92.97681427001953</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-2.93283224105835</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.892940282821655</c:v>
+                  <c:v>-3.892946004867554</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88.74828338623047</c:v>
+                  <c:v>88.74827575683594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.366624593734741</c:v>
+                  <c:v>-3.366612911224365</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.70662212371826</c:v>
+                  <c:v>15.70662021636963</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>29.24515342712402</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76.73673248291016</c:v>
+                  <c:v>76.73674774169922</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-0.5186551809310913</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>98.29681396484375</c:v>
+                  <c:v>98.29679870605469</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-2.768759250640869</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5014438629150391</c:v>
+                  <c:v>0.5014409422874451</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31.18657112121582</c:v>
+                  <c:v>31.18658256530762</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50.22458267211914</c:v>
+                  <c:v>50.22459030151367</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-2.838672399520874</c:v>
+                  <c:v>-2.838666439056396</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>97.52568817138672</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>94.95613861083984</c:v>
+                  <c:v>94.95613098144531</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45.11435317993164</c:v>
+                  <c:v>45.11433029174805</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.63588237762451</c:v>
+                  <c:v>11.63587665557861</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.092026948928833</c:v>
+                  <c:v>2.092028617858887</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-2.288479328155518</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78.81884765625</c:v>
+                  <c:v>78.81885528564453</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-2.903721809387207</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>92.84377288818359</c:v>
+                  <c:v>92.84376525878906</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.965476512908936</c:v>
+                  <c:v>5.965473651885986</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>94.22205352783203</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.837711572647095</c:v>
+                  <c:v>2.837707996368408</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>74.88117218017578</c:v>
+                  <c:v>74.88117980957031</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.97037506103516</c:v>
+                  <c:v>92.97036743164062</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>91.49184417724609</c:v>
@@ -6119,7 +6119,7 @@
                   <c:v>58.97641754150391</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>65.64370727539062</c:v>
+                  <c:v>65.64369201660156</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>96.20416259765625</c:v>
@@ -6140,7 +6140,7 @@
                   <c:v>32.25817108154297</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.954717636108398</c:v>
+                  <c:v>-2.9547119140625</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>43.72529983520508</c:v>
@@ -6149,22 +6149,22 @@
                   <c:v>-2.767275094985962</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>91.26832580566406</c:v>
+                  <c:v>91.26833343505859</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>60.14381790161133</c:v>
+                  <c:v>60.1438102722168</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>34.44573593139648</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.7919593453407288</c:v>
+                  <c:v>-0.7919710874557495</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>92.72003936767578</c:v>
+                  <c:v>92.72004699707031</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.746895909309387</c:v>
+                  <c:v>-1.746907591819763</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>90.48677062988281</c:v>
@@ -6176,40 +6176,40 @@
                   <c:v>86.39739990234375</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>92.96556091308594</c:v>
+                  <c:v>92.96555328369141</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>54.62135696411133</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.1881393492221832</c:v>
+                  <c:v>-0.1881510764360428</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>93.70219421386719</c:v>
+                  <c:v>93.70220184326172</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>59.30987167358398</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.18611216545105</c:v>
+                  <c:v>-2.186106204986572</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>-2.630429267883301</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>93.69409942626953</c:v>
+                  <c:v>93.69410705566406</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>92.03643798828125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>94.64628601074219</c:v>
+                  <c:v>94.64629364013672</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>99.90137481689453</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.7945494651794434</c:v>
+                  <c:v>0.7945553064346313</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>46.89843368530273</c:v>
@@ -6218,7 +6218,7 @@
                   <c:v>82.27725219726562</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>93.51755523681641</c:v>
+                  <c:v>93.51754760742188</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>42.62003707885742</c:v>
@@ -6227,7 +6227,7 @@
                   <c:v>-1.860371708869934</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.04750061035156</c:v>
+                  <c:v>94.04752349853516</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>93.63716888427734</c:v>
@@ -6242,13 +6242,13 @@
                   <c:v>59.13600921630859</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>91.97013092041016</c:v>
+                  <c:v>91.97012329101562</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-6.862006187438965</c:v>
+                  <c:v>-6.86201810836792</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.758167028427124</c:v>
+                  <c:v>2.758155345916748</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>93.074951171875</c:v>
@@ -6257,7 +6257,7 @@
                   <c:v>74.02722930908203</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-3.538646936416626</c:v>
+                  <c:v>-3.538635015487671</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>72.18190765380859</c:v>
@@ -6266,7 +6266,7 @@
                   <c:v>96.28773498535156</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-4.509332656860352</c:v>
+                  <c:v>-4.509320735931396</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>92.79362487792969</c:v>
@@ -6281,10 +6281,10 @@
                   <c:v>-0.5563440322875977</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>47.53983688354492</c:v>
+                  <c:v>47.53984069824219</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>94.518310546875</c:v>
+                  <c:v>94.51831817626953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>94.70972442626953</v>
+        <v>94.70973968505859</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-1.743833541870117</v>
+        <v>-1.743827700614929</v>
       </c>
       <c r="G3">
         <v>103</v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>74.25104522705078</v>
+        <v>74.25105285644531</v>
       </c>
       <c r="G4">
         <v>103</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.283538341522217</v>
+        <v>-1.283550143241882</v>
       </c>
       <c r="G5">
         <v>103</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>93.88845825195312</v>
+        <v>93.88845062255859</v>
       </c>
       <c r="G7">
         <v>103</v>
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>92.56847381591797</v>
+        <v>92.56846618652344</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>90.2413330078125</v>
+        <v>90.24134826660156</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>91.25121307373047</v>
+        <v>91.25120544433594</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>92.97679901123047</v>
+        <v>92.97681427001953</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-3.892940282821655</v>
+        <v>-3.892946004867554</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>88.74828338623047</v>
+        <v>88.74827575683594</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-3.366624593734741</v>
+        <v>-3.366612911224365</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>15.70662212371826</v>
+        <v>15.70662021636963</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>76.73673248291016</v>
+        <v>76.73674774169922</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>98.29681396484375</v>
+        <v>98.29679870605469</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5014438629150391</v>
+        <v>0.5014409422874451</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>31.18657112121582</v>
+        <v>31.18658256530762</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>50.22458267211914</v>
+        <v>50.22459030151367</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-2.838672399520874</v>
+        <v>-2.838666439056396</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>94.95613861083984</v>
+        <v>94.95613098144531</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>45.11435317993164</v>
+        <v>45.11433029174805</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>11.63588237762451</v>
+        <v>11.63587665557861</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.092026948928833</v>
+        <v>2.092028617858887</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>78.81884765625</v>
+        <v>78.81885528564453</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>92.84377288818359</v>
+        <v>92.84376525878906</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>5.965476512908936</v>
+        <v>5.965473651885986</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>2.837711572647095</v>
+        <v>2.837707996368408</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>74.88117218017578</v>
+        <v>74.88117980957031</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>96.66849999999999</v>
       </c>
       <c r="F43">
-        <v>92.97037506103516</v>
+        <v>92.97036743164062</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>65.64370727539062</v>
+        <v>65.64369201660156</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-2.954717636108398</v>
+        <v>-2.9547119140625</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>91.26832580566406</v>
+        <v>91.26833343505859</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>58.6329</v>
       </c>
       <c r="F57">
-        <v>60.14381790161133</v>
+        <v>60.1438102722168</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.7919593453407288</v>
+        <v>-0.7919710874557495</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>92.72003936767578</v>
+        <v>92.72004699707031</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-1.746895909309387</v>
+        <v>-1.746907591819763</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>92.96556091308594</v>
+        <v>92.96555328369141</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.1881393492221832</v>
+        <v>-0.1881510764360428</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>93.70219421386719</v>
+        <v>93.70220184326172</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>-2.18611216545105</v>
+        <v>-2.186106204986572</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>93.69409942626953</v>
+        <v>93.69410705566406</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>94.64628601074219</v>
+        <v>94.64629364013672</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.7945494651794434</v>
+        <v>0.7945553064346313</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>93.51755523681641</v>
+        <v>93.51754760742188</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>97.32899999999999</v>
       </c>
       <c r="F82">
-        <v>94.04750061035156</v>
+        <v>94.04752349853516</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>91.97013092041016</v>
+        <v>91.97012329101562</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-6.862006187438965</v>
+        <v>-6.86201810836792</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>2.758167028427124</v>
+        <v>2.758155345916748</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-3.538646936416626</v>
+        <v>-3.538635015487671</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>-4.509332656860352</v>
+        <v>-4.509320735931396</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>47.53983688354492</v>
+        <v>47.53984069824219</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>94.518310546875</v>
+        <v>94.51831817626953</v>
       </c>
     </row>
     <row r="102" spans="1:6">
